--- a/18/sdamgia/todo58485.xlsx
+++ b/18/sdamgia/todo58485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\18\sdamgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AFD2A-EC43-4F9C-A9E4-073A8E53669C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D203F0-E4B7-4C44-8C19-6CCBF5E680EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
@@ -34,14 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>макс=</t>
-  </si>
-  <si>
-    <t>мин=</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +66,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -184,6 +183,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B0D428-36C2-45C8-9DE7-D0C0F5BEA535}">
-  <dimension ref="B1:T34"/>
+  <dimension ref="B1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,8 +1217,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <f>B2</f>
         <v>47</v>
@@ -1279,760 +1280,754 @@
         <v>473</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <f>B20+ABS(B3-B2)</f>
         <v>61</v>
       </c>
       <c r="C21" s="13">
-        <f>IF(MAX(C2,B3)=C2,C20+ABS(C3-C2),B21+ABS(C3-B3))</f>
+        <f>MIN(C20+ABS(C3-C2),B21+ABS(C3-B3))</f>
         <v>98</v>
       </c>
       <c r="D21" s="13">
-        <f>IF(MAX(D2,C3)=D2,D20+ABS(D3-D2),C21+ABS(D3-C3))</f>
+        <f>MIN(D20+ABS(D3-D2),C21+ABS(D3-C3))</f>
         <v>103</v>
       </c>
       <c r="E21" s="13">
-        <f>IF(MAX(E2,D3)=E2,E20+ABS(E3-E2),D21+ABS(E3-D3))</f>
+        <f>MIN(E20+ABS(E3-E2),D21+ABS(E3-D3))</f>
         <v>108</v>
       </c>
       <c r="F21" s="13">
-        <f>IF(MAX(F2,E3)=F2,F20+ABS(F3-F2),E21+ABS(F3-E3))</f>
+        <f>MIN(F20+ABS(F3-F2),E21+ABS(F3-E3))</f>
         <v>110</v>
       </c>
       <c r="G21" s="13">
-        <f>IF(MAX(G2,F3)=G2,G20+ABS(G3-G2),F21+ABS(G3-F3))</f>
-        <v>191</v>
+        <f>MIN(G20+ABS(G3-G2),F21+ABS(G3-F3))</f>
+        <v>133</v>
       </c>
       <c r="H21" s="13">
-        <f>IF(MAX(H2,G3)=H2,H20+ABS(H3-H2),G21+ABS(H3-G3))</f>
-        <v>228</v>
+        <f>MIN(H20+ABS(H3-H2),G21+ABS(H3-G3))</f>
+        <v>156</v>
       </c>
       <c r="I21" s="13">
-        <f>IF(MAX(I2,H3)=I2,I20+ABS(I3-I2),H21+ABS(I3-H3))</f>
-        <v>241</v>
+        <f>MIN(I20+ABS(I3-I2),H21+ABS(I3-H3))</f>
+        <v>199</v>
       </c>
       <c r="J21" s="13">
-        <f>IF(MAX(J2,I3)=J2,J20+ABS(J3-J2),I21+ABS(J3-I3))</f>
-        <v>254</v>
+        <f>MIN(J20+ABS(J3-J2),I21+ABS(J3-I3))</f>
+        <v>212</v>
       </c>
       <c r="K21" s="13">
-        <f>IF(MAX(K2,J3)=K2,K20+ABS(K3-K2),J21+ABS(K3-J3))</f>
-        <v>405</v>
+        <f>MIN(K20+ABS(K3-K2),J21+ABS(K3-J3))</f>
+        <v>281</v>
       </c>
       <c r="L21" s="13">
-        <f>IF(MAX(L2,K3)=L2,L20+ABS(L3-L2),K21+ABS(L3-K3))</f>
+        <f>MIN(L20+ABS(L3-L2),K21+ABS(L3-K3))</f>
+        <v>292</v>
+      </c>
+      <c r="M21" s="13">
+        <f>MIN(M20+ABS(M3-M2),L21+ABS(M3-L3))</f>
+        <v>355</v>
+      </c>
+      <c r="N21" s="13">
+        <f>MIN(N20+ABS(N3-N2),M21+ABS(N3-M3))</f>
+        <v>398</v>
+      </c>
+      <c r="O21" s="13">
+        <f>MIN(O20+ABS(O3-O2),N21+ABS(O3-N3))</f>
+        <v>441</v>
+      </c>
+      <c r="P21" s="13">
+        <f>MIN(P20+ABS(P3-P2),O21+ABS(P3-O3))</f>
+        <v>457</v>
+      </c>
+      <c r="T21" s="15">
         <v>416</v>
       </c>
-      <c r="M21" s="13">
-        <f>IF(MAX(M2,L3)=M2,M20+ABS(M3-M2),L21+ABS(M3-L3))</f>
-        <v>381</v>
-      </c>
-      <c r="N21" s="13">
-        <f>IF(MAX(N2,M3)=N2,N20+ABS(N3-N2),M21+ABS(N3-M3))</f>
-        <v>424</v>
-      </c>
-      <c r="O21" s="13">
-        <f>IF(MAX(O2,N3)=O2,O20+ABS(O3-O2),N21+ABS(O3-N3))</f>
-        <v>449</v>
-      </c>
-      <c r="P21" s="13">
-        <f>IF(MAX(P2,O3)=P2,P20+ABS(P3-P2),O21+ABS(P3-O3))</f>
-        <v>481</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="15">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <f t="shared" ref="B22:B34" si="1">B21+ABS(B4-B3)</f>
         <v>79</v>
       </c>
       <c r="C22" s="13">
-        <f>IF(MAX(C3,B4)=C3,C21+ABS(C4-C3),B22+ABS(C4-B4))</f>
-        <v>149</v>
+        <f>MIN(C21+ABS(C4-C3),B22+ABS(C4-B4))</f>
+        <v>83</v>
       </c>
       <c r="D22" s="13">
-        <f>IF(MAX(D3,C4)=D3,D21+ABS(D4-D3),C22+ABS(D4-C4))</f>
-        <v>153</v>
+        <f>MIN(D21+ABS(D4-D3),C22+ABS(D4-C4))</f>
+        <v>87</v>
       </c>
       <c r="E22" s="13">
-        <f>IF(MAX(E3,D4)=E3,E21+ABS(E4-E3),D22+ABS(E4-D4))</f>
+        <f>MIN(E21+ABS(E4-E3),D22+ABS(E4-D4))</f>
         <v>124</v>
       </c>
       <c r="F22" s="13">
-        <f>IF(MAX(F3,E4)=F3,F21+ABS(F4-F3),E22+ABS(F4-E4))</f>
-        <v>131</v>
+        <f>MIN(F21+ABS(F4-F3),E22+ABS(F4-E4))</f>
+        <v>127</v>
       </c>
       <c r="G22" s="13">
-        <f>IF(MAX(G3,F4)=G3,G21+ABS(G4-G3),F22+ABS(G4-F4))</f>
-        <v>169</v>
+        <f>MIN(G21+ABS(G4-G3),F22+ABS(G4-F4))</f>
+        <v>165</v>
       </c>
       <c r="H22" s="13">
-        <f>IF(MAX(H3,G4)=H3,H21+ABS(H4-H3),G22+ABS(H4-G4))</f>
-        <v>175</v>
+        <f>MIN(H21+ABS(H4-H3),G22+ABS(H4-G4))</f>
+        <v>171</v>
       </c>
       <c r="I22" s="13">
-        <f>IF(MAX(I3,H4)=I3,I21+ABS(I4-I3),H22+ABS(I4-H4))</f>
-        <v>190</v>
+        <f>MIN(I21+ABS(I4-I3),H22+ABS(I4-H4))</f>
+        <v>186</v>
       </c>
       <c r="J22" s="13">
-        <f>IF(MAX(J3,I4)=J3,J21+ABS(J4-J3),I22+ABS(J4-I4))</f>
-        <v>320</v>
+        <f>MIN(J21+ABS(J4-J3),I22+ABS(J4-I4))</f>
+        <v>250</v>
       </c>
       <c r="K22" s="13">
-        <f>IF(MAX(K3,J4)=K3,K21+ABS(K4-K3),J22+ABS(K4-J4))</f>
-        <v>381</v>
+        <f>MIN(K21+ABS(K4-K3),J22+ABS(K4-J4))</f>
+        <v>311</v>
       </c>
       <c r="L22" s="13">
-        <f>IF(MAX(L3,K4)=L3,L21+ABS(L4-L3),K22+ABS(L4-K4))</f>
-        <v>397</v>
+        <f>MIN(L21+ABS(L4-L3),K22+ABS(L4-K4))</f>
+        <v>327</v>
       </c>
       <c r="M22" s="13">
-        <f>IF(MAX(M3,L4)=M3,M21+ABS(M4-M3),L22+ABS(M4-L4))</f>
-        <v>440</v>
+        <f>MIN(M21+ABS(M4-M3),L22+ABS(M4-L4))</f>
+        <v>382</v>
       </c>
       <c r="N22" s="13">
-        <f>IF(MAX(N3,M4)=N3,N21+ABS(N4-N3),M22+ABS(N4-M4))</f>
-        <v>477</v>
+        <f>MIN(N21+ABS(N4-N3),M22+ABS(N4-M4))</f>
+        <v>451</v>
       </c>
       <c r="O22" s="13">
-        <f>IF(MAX(O3,N4)=O3,O21+ABS(O4-O3),N22+ABS(O4-N4))</f>
-        <v>499</v>
+        <f>MIN(O21+ABS(O4-O3),N22+ABS(O4-N4))</f>
+        <v>453</v>
       </c>
       <c r="P22" s="13">
-        <f>IF(MAX(P3,O4)=P3,P21+ABS(P4-P3),O22+ABS(P4-O4))</f>
-        <v>483</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P21+ABS(P4-P3),O22+ABS(P4-O4))</f>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="C23" s="13">
-        <f>IF(MAX(C4,B5)=C4,C22+ABS(C5-C4),B23+ABS(C5-B5))</f>
-        <v>217</v>
+        <f>MIN(C22+ABS(C5-C4),B23+ABS(C5-B5))</f>
+        <v>87</v>
       </c>
       <c r="D23" s="13">
-        <f>IF(MAX(D4,C5)=D4,D22+ABS(D5-D4),C23+ABS(D5-C5))</f>
-        <v>190</v>
+        <f>MIN(D22+ABS(D5-D4),C23+ABS(D5-C5))</f>
+        <v>124</v>
       </c>
       <c r="E23" s="13">
-        <f>IF(MAX(E4,D5)=E4,E22+ABS(E5-E4),D23+ABS(E5-D5))</f>
+        <f>MIN(E22+ABS(E5-E4),D23+ABS(E5-D5))</f>
         <v>139</v>
       </c>
       <c r="F23" s="13">
-        <f>IF(MAX(F4,E5)=F4,F22+ABS(F5-F4),E23+ABS(F5-E5))</f>
+        <f>MIN(F22+ABS(F5-F4),E23+ABS(F5-E5))</f>
         <v>158</v>
       </c>
       <c r="G23" s="13">
-        <f>IF(MAX(G4,F5)=G4,G22+ABS(G5-G4),F23+ABS(G5-F5))</f>
-        <v>223</v>
+        <f>MIN(G22+ABS(G5-G4),F23+ABS(G5-F5))</f>
+        <v>211</v>
       </c>
       <c r="H23" s="13">
-        <f>IF(MAX(H4,G5)=H4,H22+ABS(H5-H4),G23+ABS(H5-G5))</f>
-        <v>255</v>
+        <f>MIN(H22+ABS(H5-H4),G23+ABS(H5-G5))</f>
+        <v>231</v>
       </c>
       <c r="I23" s="13">
-        <f>IF(MAX(I4,H5)=I4,I22+ABS(I5-I4),H23+ABS(I5-H5))</f>
-        <v>199</v>
+        <f>MIN(I22+ABS(I5-I4),H23+ABS(I5-H5))</f>
+        <v>195</v>
       </c>
       <c r="J23" s="13">
-        <f>IF(MAX(J4,I5)=J4,J22+ABS(J5-J4),I23+ABS(J5-I5))</f>
-        <v>268</v>
+        <f>MIN(J22+ABS(J5-J4),I23+ABS(J5-I5))</f>
+        <v>264</v>
       </c>
       <c r="K23" s="13">
-        <f>IF(MAX(K4,J5)=K4,K22+ABS(K5-K4),J23+ABS(K5-J5))</f>
-        <v>455</v>
+        <f>MIN(K22+ABS(K5-K4),J23+ABS(K5-J5))</f>
+        <v>265</v>
       </c>
       <c r="L23" s="13">
-        <f>IF(MAX(L4,K5)=L4,L22+ABS(L5-L4),K23+ABS(L5-K5))</f>
-        <v>413</v>
+        <f>MIN(L22+ABS(L5-L4),K23+ABS(L5-K5))</f>
+        <v>307</v>
       </c>
       <c r="M23" s="13">
-        <f>IF(MAX(M4,L5)=M4,M22+ABS(M5-M4),L23+ABS(M5-L5))</f>
-        <v>448</v>
+        <f>MIN(M22+ABS(M5-M4),L23+ABS(M5-L5))</f>
+        <v>342</v>
       </c>
       <c r="N23" s="13">
-        <f>IF(MAX(N4,M5)=N4,N22+ABS(N5-N4),M23+ABS(N5-M5))</f>
-        <v>545</v>
+        <f>MIN(N22+ABS(N5-N4),M23+ABS(N5-M5))</f>
+        <v>345</v>
       </c>
       <c r="O23" s="13">
-        <f>IF(MAX(O4,N5)=O4,O22+ABS(O5-O4),N23+ABS(O5-N5))</f>
-        <v>524</v>
+        <f>MIN(O22+ABS(O5-O4),N23+ABS(O5-N5))</f>
+        <v>366</v>
       </c>
       <c r="P23" s="13">
-        <f>IF(MAX(P4,O5)=P4,P22+ABS(P5-P4),O23+ABS(P5-O5))</f>
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P22+ABS(P5-P4),O23+ABS(P5-O5))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="C24" s="13">
-        <f>IF(MAX(C5,B6)=C5,C23+ABS(C6-C5),B24+ABS(C6-B6))</f>
-        <v>204</v>
+        <f>MIN(C23+ABS(C6-C5),B24+ABS(C6-B6))</f>
+        <v>116</v>
       </c>
       <c r="D24" s="13">
-        <f>IF(MAX(D5,C6)=D5,D23+ABS(D6-D5),C24+ABS(D6-C6))</f>
+        <f>MIN(D23+ABS(D6-D5),C24+ABS(D6-C6))</f>
+        <v>128</v>
+      </c>
+      <c r="E24" s="13">
+        <f>MIN(E23+ABS(E6-E5),D24+ABS(E6-D6))</f>
+        <v>156</v>
+      </c>
+      <c r="F24" s="13">
+        <f>MIN(F23+ABS(F6-F5),E24+ABS(F6-E6))</f>
+        <v>188</v>
+      </c>
+      <c r="G24" s="13">
+        <f>MIN(G23+ABS(G6-G5),F24+ABS(G6-F6))</f>
+        <v>223</v>
+      </c>
+      <c r="H24" s="13">
+        <f>MIN(H23+ABS(H6-H5),G24+ABS(H6-G6))</f>
+        <v>226</v>
+      </c>
+      <c r="I24" s="13">
+        <f>MIN(I23+ABS(I6-I5),H24+ABS(I6-H6))</f>
+        <v>202</v>
+      </c>
+      <c r="J24" s="13">
+        <f>MIN(J23+ABS(J6-J5),I24+ABS(J6-I6))</f>
         <v>210</v>
       </c>
-      <c r="E24" s="13">
-        <f>IF(MAX(E5,D6)=E5,E23+ABS(E6-E5),D24+ABS(E6-D6))</f>
-        <v>204</v>
-      </c>
-      <c r="F24" s="13">
-        <f>IF(MAX(F5,E6)=F5,F23+ABS(F6-F5),E24+ABS(F6-E6))</f>
-        <v>188</v>
-      </c>
-      <c r="G24" s="13">
-        <f>IF(MAX(G5,F6)=G5,G23+ABS(G6-G5),F24+ABS(G6-F6))</f>
-        <v>223</v>
-      </c>
-      <c r="H24" s="13">
-        <f>IF(MAX(H5,G6)=H5,H23+ABS(H6-H5),G24+ABS(H6-G6))</f>
-        <v>226</v>
-      </c>
-      <c r="I24" s="13">
-        <f>IF(MAX(I5,H6)=I5,I23+ABS(I6-I5),H24+ABS(I6-H6))</f>
-        <v>206</v>
-      </c>
-      <c r="J24" s="13">
-        <f>IF(MAX(J5,I6)=J5,J23+ABS(J6-J5),I24+ABS(J6-I6))</f>
-        <v>214</v>
-      </c>
       <c r="K24" s="13">
-        <f>IF(MAX(K5,J6)=K5,K23+ABS(K6-K5),J24+ABS(K6-J6))</f>
-        <v>216</v>
+        <f>MIN(K23+ABS(K6-K5),J24+ABS(K6-J6))</f>
+        <v>212</v>
       </c>
       <c r="L24" s="13">
-        <f>IF(MAX(L5,K6)=L5,L23+ABS(L6-L5),K24+ABS(L6-K6))</f>
-        <v>229</v>
+        <f>MIN(L23+ABS(L6-L5),K24+ABS(L6-K6))</f>
+        <v>225</v>
       </c>
       <c r="M24" s="13">
-        <f>IF(MAX(M5,L6)=M5,M23+ABS(M6-M5),L24+ABS(M6-L6))</f>
-        <v>256</v>
+        <f>MIN(M23+ABS(M6-M5),L24+ABS(M6-L6))</f>
+        <v>252</v>
       </c>
       <c r="N24" s="13">
-        <f>IF(MAX(N5,M6)=N5,N23+ABS(N6-N5),M24+ABS(N6-M6))</f>
-        <v>279</v>
+        <f>MIN(N23+ABS(N6-N5),M24+ABS(N6-M6))</f>
+        <v>275</v>
       </c>
       <c r="O24" s="13">
-        <f>IF(MAX(O5,N6)=O5,O23+ABS(O6-O5),N24+ABS(O6-N6))</f>
-        <v>313</v>
+        <f>MIN(O23+ABS(O6-O5),N24+ABS(O6-N6))</f>
+        <v>309</v>
       </c>
       <c r="P24" s="13">
-        <f>IF(MAX(P5,O6)=P5,P23+ABS(P6-P5),O24+ABS(P6-O6))</f>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P23+ABS(P6-P5),O24+ABS(P6-O6))</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="C25" s="13">
-        <f>IF(MAX(C6,B7)=C6,C24+ABS(C7-C6),B25+ABS(C7-B7))</f>
-        <v>220</v>
+        <f>MIN(C24+ABS(C7-C6),B25+ABS(C7-B7))</f>
+        <v>132</v>
       </c>
       <c r="D25" s="13">
-        <f>IF(MAX(D6,C7)=D6,D24+ABS(D7-D6),C25+ABS(D7-C7))</f>
-        <v>225</v>
+        <f>MIN(D24+ABS(D7-D6),C25+ABS(D7-C7))</f>
+        <v>137</v>
       </c>
       <c r="E25" s="13">
-        <f>IF(MAX(E6,D7)=E6,E24+ABS(E7-E6),D25+ABS(E7-D7))</f>
-        <v>253</v>
+        <f>MIN(E24+ABS(E7-E6),D25+ABS(E7-D7))</f>
+        <v>165</v>
       </c>
       <c r="F25" s="13">
-        <f>IF(MAX(F6,E7)=F6,F24+ABS(F7-F6),E25+ABS(F7-E7))</f>
-        <v>197</v>
+        <f>MIN(F24+ABS(F7-F6),E25+ABS(F7-E7))</f>
+        <v>195</v>
       </c>
       <c r="G25" s="13">
-        <f>IF(MAX(G6,F7)=G6,G24+ABS(G7-G6),F25+ABS(G7-F7))</f>
+        <f>MIN(G24+ABS(G7-G6),F25+ABS(G7-F7))</f>
+        <v>226</v>
+      </c>
+      <c r="H25" s="13">
+        <f>MIN(H24+ABS(H7-H6),G25+ABS(H7-G7))</f>
         <v>228</v>
       </c>
-      <c r="H25" s="13">
-        <f>IF(MAX(H6,G7)=H6,H24+ABS(H7-H6),G25+ABS(H7-G7))</f>
-        <v>304</v>
-      </c>
       <c r="I25" s="13">
-        <f>IF(MAX(I6,H7)=I6,I24+ABS(I7-I6),H25+ABS(I7-H7))</f>
-        <v>228</v>
+        <f>MIN(I24+ABS(I7-I6),H25+ABS(I7-H7))</f>
+        <v>224</v>
       </c>
       <c r="J25" s="13">
-        <f>IF(MAX(J6,I7)=J6,J24+ABS(J7-J6),I25+ABS(J7-I7))</f>
-        <v>237</v>
+        <f>MIN(J24+ABS(J7-J6),I25+ABS(J7-I7))</f>
+        <v>233</v>
       </c>
       <c r="K25" s="13">
-        <f>IF(MAX(K6,J7)=K6,K24+ABS(K7-K6),J25+ABS(K7-J7))</f>
-        <v>301</v>
+        <f>MIN(K24+ABS(K7-K6),J25+ABS(K7-J7))</f>
+        <v>251</v>
       </c>
       <c r="L25" s="13">
-        <f>IF(MAX(L6,K7)=L6,L24+ABS(L7-L6),K25+ABS(L7-K7))</f>
-        <v>268</v>
+        <f>MIN(L24+ABS(L7-L6),K25+ABS(L7-K7))</f>
+        <v>264</v>
       </c>
       <c r="M25" s="13">
-        <f>IF(MAX(M6,L7)=M6,M24+ABS(M7-M6),L25+ABS(M7-L7))</f>
-        <v>322</v>
+        <f>MIN(M24+ABS(M7-M6),L25+ABS(M7-L7))</f>
+        <v>264</v>
       </c>
       <c r="N25" s="13">
-        <f>IF(MAX(N6,M7)=N6,N24+ABS(N7-N6),M25+ABS(N7-M7))</f>
-        <v>296</v>
+        <f>MIN(N24+ABS(N7-N6),M25+ABS(N7-M7))</f>
+        <v>290</v>
       </c>
       <c r="O25" s="13">
-        <f>IF(MAX(O6,N7)=O6,O24+ABS(O7-O6),N25+ABS(O7-N7))</f>
-        <v>301</v>
+        <f>MIN(O24+ABS(O7-O6),N25+ABS(O7-N7))</f>
+        <v>295</v>
       </c>
       <c r="P25" s="13">
-        <f>IF(MAX(P6,O7)=P6,P24+ABS(P7-P6),O25+ABS(P7-O7))</f>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P24+ABS(P7-P6),O25+ABS(P7-O7))</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="C26" s="13">
-        <f>IF(MAX(C7,B8)=C7,C25+ABS(C8-C7),B26+ABS(C8-B8))</f>
-        <v>241</v>
+        <f>MIN(C25+ABS(C8-C7),B26+ABS(C8-B8))</f>
+        <v>149</v>
       </c>
       <c r="D26" s="13">
-        <f>IF(MAX(D7,C8)=D7,D25+ABS(D8-D7),C26+ABS(D8-C8))</f>
-        <v>280</v>
+        <f>MIN(D25+ABS(D8-D7),C26+ABS(D8-C8))</f>
+        <v>164</v>
       </c>
       <c r="E26" s="13">
-        <f>IF(MAX(E7,D8)=E7,E25+ABS(E8-E7),D26+ABS(E8-D8))</f>
-        <v>308</v>
+        <f>MIN(E25+ABS(E8-E7),D26+ABS(E8-D8))</f>
+        <v>192</v>
       </c>
       <c r="F26" s="13">
-        <f>IF(MAX(F7,E8)=F7,F25+ABS(F8-F7),E26+ABS(F8-E8))</f>
-        <v>206</v>
+        <f>MIN(F25+ABS(F8-F7),E26+ABS(F8-E8))</f>
+        <v>202</v>
       </c>
       <c r="G26" s="13">
-        <f>IF(MAX(G7,F8)=G7,G25+ABS(G8-G7),F26+ABS(G8-F8))</f>
-        <v>298</v>
+        <f>MIN(G25+ABS(G8-G7),F26+ABS(G8-F8))</f>
+        <v>250</v>
       </c>
       <c r="H26" s="13">
-        <f>IF(MAX(H7,G8)=H7,H25+ABS(H8-H7),G26+ABS(H8-G8))</f>
+        <f>MIN(H25+ABS(H8-H7),G26+ABS(H8-G8))</f>
+        <v>264</v>
+      </c>
+      <c r="I26" s="13">
+        <f>MIN(I25+ABS(I8-I7),H26+ABS(I8-H8))</f>
+        <v>249</v>
+      </c>
+      <c r="J26" s="13">
+        <f>MIN(J25+ABS(J8-J7),I26+ABS(J8-I8))</f>
+        <v>307</v>
+      </c>
+      <c r="K26" s="13">
+        <f>MIN(K25+ABS(K8-K7),J26+ABS(K8-J8))</f>
+        <v>263</v>
+      </c>
+      <c r="L26" s="13">
+        <f>MIN(L25+ABS(L8-L7),K26+ABS(L8-K8))</f>
+        <v>266</v>
+      </c>
+      <c r="M26" s="13">
+        <f>MIN(M25+ABS(M8-M7),L26+ABS(M8-L8))</f>
+        <v>340</v>
+      </c>
+      <c r="N26" s="13">
+        <f>MIN(N25+ABS(N8-N7),M26+ABS(N8-M8))</f>
+        <v>315</v>
+      </c>
+      <c r="O26" s="13">
+        <f>MIN(O25+ABS(O8-O7),N26+ABS(O8-N8))</f>
         <v>328</v>
       </c>
-      <c r="I26" s="13">
-        <f>IF(MAX(I7,H8)=I7,I25+ABS(I8-I7),H26+ABS(I8-H8))</f>
-        <v>337</v>
-      </c>
-      <c r="J26" s="13">
-        <f>IF(MAX(J7,I8)=J7,J25+ABS(J8-J7),I26+ABS(J8-I8))</f>
-        <v>323</v>
-      </c>
-      <c r="K26" s="13">
-        <f>IF(MAX(K7,J8)=K7,K25+ABS(K8-K7),J26+ABS(K8-J8))</f>
-        <v>313</v>
-      </c>
-      <c r="L26" s="13">
-        <f>IF(MAX(L7,K8)=L7,L25+ABS(L8-L7),K26+ABS(L8-K8))</f>
-        <v>336</v>
-      </c>
-      <c r="M26" s="13">
-        <f>IF(MAX(M7,L8)=M7,M25+ABS(M8-M7),L26+ABS(M8-L8))</f>
-        <v>410</v>
-      </c>
-      <c r="N26" s="13">
-        <f>IF(MAX(N7,M8)=N7,N25+ABS(N8-N7),M26+ABS(N8-M8))</f>
-        <v>435</v>
-      </c>
-      <c r="O26" s="13">
-        <f>IF(MAX(O7,N8)=O7,O25+ABS(O8-O7),N26+ABS(O8-N8))</f>
-        <v>448</v>
-      </c>
       <c r="P26" s="13">
-        <f>IF(MAX(P7,O8)=P7,P25+ABS(P8-P7),O26+ABS(P8-O8))</f>
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P25+ABS(P8-P7),O26+ABS(P8-O8))</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="C27" s="13">
-        <f>IF(MAX(C8,B9)=C8,C26+ABS(C9-C8),B27+ABS(C9-B9))</f>
-        <v>312</v>
+        <f>MIN(C26+ABS(C9-C8),B27+ABS(C9-B9))</f>
+        <v>220</v>
       </c>
       <c r="D27" s="13">
-        <f>IF(MAX(D8,C9)=D8,D26+ABS(D9-D8),C27+ABS(D9-C9))</f>
-        <v>315</v>
+        <f>MIN(D26+ABS(D9-D8),C27+ABS(D9-C9))</f>
+        <v>199</v>
       </c>
       <c r="E27" s="13">
-        <f>IF(MAX(E8,D9)=E8,E26+ABS(E9-E8),D27+ABS(E9-D9))</f>
-        <v>339</v>
+        <f>MIN(E26+ABS(E9-E8),D27+ABS(E9-D9))</f>
+        <v>209</v>
       </c>
       <c r="F27" s="13">
-        <f>IF(MAX(F8,E9)=F8,F26+ABS(F9-F8),E27+ABS(F9-E9))</f>
-        <v>236</v>
+        <f>MIN(F26+ABS(F9-F8),E27+ABS(F9-E9))</f>
+        <v>212</v>
       </c>
       <c r="G27" s="13">
-        <f>IF(MAX(G8,F9)=G8,G26+ABS(G9-G8),F27+ABS(G9-F9))</f>
-        <v>236</v>
+        <f>MIN(G26+ABS(G9-G8),F27+ABS(G9-F9))</f>
+        <v>212</v>
       </c>
       <c r="H27" s="13">
-        <f>IF(MAX(H8,G9)=H8,H26+ABS(H9-H8),G27+ABS(H9-G9))</f>
-        <v>354</v>
+        <f>MIN(H26+ABS(H9-H8),G27+ABS(H9-G9))</f>
+        <v>250</v>
       </c>
       <c r="I27" s="13">
-        <f>IF(MAX(I8,H9)=I8,I26+ABS(I9-I8),H27+ABS(I9-H9))</f>
-        <v>354</v>
+        <f>MIN(I26+ABS(I9-I8),H27+ABS(I9-H9))</f>
+        <v>250</v>
       </c>
       <c r="J27" s="13">
-        <f>IF(MAX(J8,I9)=J8,J26+ABS(J9-J8),I27+ABS(J9-I9))</f>
-        <v>355</v>
+        <f>MIN(J26+ABS(J9-J8),I27+ABS(J9-I9))</f>
+        <v>251</v>
       </c>
       <c r="K27" s="13">
-        <f>IF(MAX(K8,J9)=K8,K26+ABS(K9-K8),J27+ABS(K9-J9))</f>
-        <v>367</v>
+        <f>MIN(K26+ABS(K9-K8),J27+ABS(K9-J9))</f>
+        <v>263</v>
       </c>
       <c r="L27" s="13">
-        <f>IF(MAX(L8,K9)=L8,L26+ABS(L9-L8),K27+ABS(L9-K9))</f>
-        <v>374</v>
+        <f>MIN(L26+ABS(L9-L8),K27+ABS(L9-K9))</f>
+        <v>270</v>
       </c>
       <c r="M27" s="13">
-        <f>IF(MAX(M8,L9)=M8,M26+ABS(M9-M8),L27+ABS(M9-L9))</f>
-        <v>481</v>
+        <f>MIN(M26+ABS(M9-M8),L27+ABS(M9-L9))</f>
+        <v>313</v>
       </c>
       <c r="N27" s="13">
-        <f>IF(MAX(N8,M9)=N8,N26+ABS(N9-N8),M27+ABS(N9-M9))</f>
-        <v>465</v>
+        <f>MIN(N26+ABS(N9-N8),M27+ABS(N9-M9))</f>
+        <v>345</v>
       </c>
       <c r="O27" s="13">
-        <f>IF(MAX(O8,N9)=O8,O26+ABS(O9-O8),N27+ABS(O9-N9))</f>
-        <v>495</v>
+        <f>MIN(O26+ABS(O9-O8),N27+ABS(O9-N9))</f>
+        <v>341</v>
       </c>
       <c r="P27" s="13">
-        <f>IF(MAX(P8,O9)=P8,P26+ABS(P9-P8),O27+ABS(P9-O9))</f>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P26+ABS(P9-P8),O27+ABS(P9-O9))</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="C28" s="13">
-        <f>IF(MAX(C9,B10)=C9,C27+ABS(C10-C9),B28+ABS(C10-B10))</f>
-        <v>281</v>
+        <f>MIN(C27+ABS(C10-C9),B28+ABS(C10-B10))</f>
+        <v>251</v>
       </c>
       <c r="D28" s="13">
-        <f>IF(MAX(D9,C10)=D9,D27+ABS(D10-D9),C28+ABS(D10-C10))</f>
-        <v>331</v>
+        <f>MIN(D27+ABS(D10-D9),C28+ABS(D10-C10))</f>
+        <v>215</v>
       </c>
       <c r="E28" s="13">
-        <f>IF(MAX(E9,D10)=E9,E27+ABS(E10-E9),D28+ABS(E10-D10))</f>
-        <v>381</v>
+        <f>MIN(E27+ABS(E10-E9),D28+ABS(E10-D10))</f>
+        <v>251</v>
       </c>
       <c r="F28" s="13">
-        <f>IF(MAX(F9,E10)=F9,F27+ABS(F10-F9),E28+ABS(F10-E10))</f>
-        <v>246</v>
+        <f>MIN(F27+ABS(F10-F9),E28+ABS(F10-E10))</f>
+        <v>222</v>
       </c>
       <c r="G28" s="13">
-        <f>IF(MAX(G9,F10)=G9,G27+ABS(G10-G9),F28+ABS(G10-F10))</f>
-        <v>254</v>
+        <f>MIN(G27+ABS(G10-G9),F28+ABS(G10-F10))</f>
+        <v>230</v>
       </c>
       <c r="H28" s="13">
-        <f>IF(MAX(H9,G10)=H9,H27+ABS(H10-H9),G28+ABS(H10-G10))</f>
-        <v>420</v>
+        <f>MIN(H27+ABS(H10-H9),G28+ABS(H10-G10))</f>
+        <v>276</v>
       </c>
       <c r="I28" s="13">
-        <f>IF(MAX(I9,H10)=I9,I27+ABS(I10-I9),H28+ABS(I10-H10))</f>
-        <v>372</v>
+        <f>MIN(I27+ABS(I10-I9),H28+ABS(I10-H10))</f>
+        <v>268</v>
       </c>
       <c r="J28" s="13">
-        <f>IF(MAX(J9,I10)=J9,J27+ABS(J10-J9),I28+ABS(J10-I10))</f>
-        <v>410</v>
+        <f>MIN(J27+ABS(J10-J9),I28+ABS(J10-I10))</f>
+        <v>304</v>
       </c>
       <c r="K28" s="13">
-        <f>IF(MAX(K9,J10)=K9,K27+ABS(K10-K9),J28+ABS(K10-J10))</f>
-        <v>419</v>
+        <f>MIN(K27+ABS(K10-K9),J28+ABS(K10-J10))</f>
+        <v>313</v>
       </c>
       <c r="L28" s="13">
-        <f>IF(MAX(L9,K10)=L9,L27+ABS(L10-L9),K28+ABS(L10-K10))</f>
-        <v>394</v>
+        <f>MIN(L27+ABS(L10-L9),K28+ABS(L10-K10))</f>
+        <v>290</v>
       </c>
       <c r="M28" s="13">
-        <f>IF(MAX(M9,L10)=M9,M27+ABS(M10-M9),L28+ABS(M10-L10))</f>
-        <v>404</v>
+        <f>MIN(M27+ABS(M10-M9),L28+ABS(M10-L10))</f>
+        <v>300</v>
       </c>
       <c r="N28" s="13">
-        <f>IF(MAX(N9,M10)=N9,N27+ABS(N10-N9),M28+ABS(N10-M10))</f>
-        <v>534</v>
+        <f>MIN(N27+ABS(N10-N9),M28+ABS(N10-M10))</f>
+        <v>366</v>
       </c>
       <c r="O28" s="13">
-        <f>IF(MAX(O9,N10)=O9,O27+ABS(O10-O9),N28+ABS(O10-N10))</f>
-        <v>505</v>
+        <f>MIN(O27+ABS(O10-O9),N28+ABS(O10-N10))</f>
+        <v>351</v>
       </c>
       <c r="P28" s="13">
-        <f>IF(MAX(P9,O10)=P9,P27+ABS(P10-P9),O28+ABS(P10-O10))</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P27+ABS(P10-P9),O28+ABS(P10-O10))</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
         <f t="shared" si="1"/>
         <v>316</v>
       </c>
       <c r="C29" s="13">
-        <f>IF(MAX(C10,B11)=C10,C28+ABS(C11-C10),B29+ABS(C11-B11))</f>
-        <v>336</v>
+        <f>MIN(C28+ABS(C11-C10),B29+ABS(C11-B11))</f>
+        <v>306</v>
       </c>
       <c r="D29" s="13">
-        <f>IF(MAX(D10,C11)=D10,D28+ABS(D11-D10),C29+ABS(D11-C11))</f>
-        <v>413</v>
+        <f>MIN(D28+ABS(D11-D10),C29+ABS(D11-C11))</f>
+        <v>257</v>
       </c>
       <c r="E29" s="13">
-        <f>IF(MAX(E10,D11)=E10,E28+ABS(E11-E10),D29+ABS(E11-D11))</f>
-        <v>421</v>
+        <f>MIN(E28+ABS(E11-E10),D29+ABS(E11-D11))</f>
+        <v>251</v>
       </c>
       <c r="F29" s="13">
-        <f>IF(MAX(F10,E11)=F10,F28+ABS(F11-F10),E29+ABS(F11-E11))</f>
-        <v>253</v>
+        <f>MIN(F28+ABS(F11-F10),E29+ABS(F11-E11))</f>
+        <v>229</v>
       </c>
       <c r="G29" s="13">
-        <f>IF(MAX(G10,F11)=G10,G28+ABS(G11-G10),F29+ABS(G11-F11))</f>
-        <v>280</v>
+        <f>MIN(G28+ABS(G11-G10),F29+ABS(G11-F11))</f>
+        <v>256</v>
       </c>
       <c r="H29" s="13">
-        <f>IF(MAX(H10,G11)=H10,H28+ABS(H11-H10),G29+ABS(H11-G11))</f>
-        <v>311</v>
+        <f>MIN(H28+ABS(H11-H10),G29+ABS(H11-G11))</f>
+        <v>287</v>
       </c>
       <c r="I29" s="13">
-        <f>IF(MAX(I10,H11)=I10,I28+ABS(I11-I10),H29+ABS(I11-H11))</f>
-        <v>380</v>
+        <f>MIN(I28+ABS(I11-I10),H29+ABS(I11-H11))</f>
+        <v>276</v>
       </c>
       <c r="J29" s="13">
-        <f>IF(MAX(J10,I11)=J10,J28+ABS(J11-J10),I29+ABS(J11-I11))</f>
-        <v>410</v>
+        <f>MIN(J28+ABS(J11-J10),I29+ABS(J11-I11))</f>
+        <v>306</v>
       </c>
       <c r="K29" s="13">
-        <f>IF(MAX(K10,J11)=K10,K28+ABS(K11-K10),J29+ABS(K11-J11))</f>
-        <v>419</v>
+        <f>MIN(K28+ABS(K11-K10),J29+ABS(K11-J11))</f>
+        <v>315</v>
       </c>
       <c r="L29" s="13">
-        <f>IF(MAX(L10,K11)=L10,L28+ABS(L11-L10),K29+ABS(L11-K11))</f>
-        <v>423</v>
+        <f>MIN(L28+ABS(L11-L10),K29+ABS(L11-K11))</f>
+        <v>319</v>
       </c>
       <c r="M29" s="13">
-        <f>IF(MAX(M10,L11)=M10,M28+ABS(M11-M10),L29+ABS(M11-L11))</f>
-        <v>436</v>
+        <f>MIN(M28+ABS(M11-M10),L29+ABS(M11-L11))</f>
+        <v>326</v>
       </c>
       <c r="N29" s="13">
-        <f>IF(MAX(N10,M11)=N10,N28+ABS(N11-N10),M29+ABS(N11-M11))</f>
-        <v>443</v>
+        <f>MIN(N28+ABS(N11-N10),M29+ABS(N11-M11))</f>
+        <v>333</v>
       </c>
       <c r="O29" s="13">
-        <f>IF(MAX(O10,N11)=O10,O28+ABS(O11-O10),N29+ABS(O11-N11))</f>
-        <v>563</v>
+        <f>MIN(O28+ABS(O11-O10),N29+ABS(O11-N11))</f>
+        <v>369</v>
       </c>
       <c r="P29" s="13">
-        <f>IF(MAX(P10,O11)=P10,P28+ABS(P11-P10),O29+ABS(P11-O11))</f>
-        <v>582</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P28+ABS(P11-P10),O29+ABS(P11-O11))</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
       <c r="C30" s="13">
-        <f>IF(MAX(C11,B12)=C11,C29+ABS(C12-C11),B30+ABS(C12-B12))</f>
-        <v>407</v>
+        <f>MIN(C29+ABS(C12-C11),B30+ABS(C12-B12))</f>
+        <v>337</v>
       </c>
       <c r="D30" s="13">
-        <f>IF(MAX(D11,C12)=D11,D29+ABS(D12-D11),C30+ABS(D12-C12))</f>
-        <v>412</v>
+        <f>MIN(D29+ABS(D12-D11),C30+ABS(D12-C12))</f>
+        <v>258</v>
       </c>
       <c r="E30" s="13">
-        <f>IF(MAX(E11,D12)=E11,E29+ABS(E12-E11),D30+ABS(E12-D12))</f>
-        <v>481</v>
+        <f>MIN(E29+ABS(E12-E11),D30+ABS(E12-D12))</f>
+        <v>327</v>
       </c>
       <c r="F30" s="13">
-        <f>IF(MAX(F11,E12)=F11,F29+ABS(F12-F11),E30+ABS(F12-E12))</f>
-        <v>545</v>
+        <f>MIN(F29+ABS(F12-F11),E30+ABS(F12-E12))</f>
+        <v>251</v>
       </c>
       <c r="G30" s="13">
-        <f>IF(MAX(G11,F12)=G11,G29+ABS(G12-G11),F30+ABS(G12-F12))</f>
-        <v>292</v>
+        <f>MIN(G29+ABS(G12-G11),F30+ABS(G12-F12))</f>
+        <v>268</v>
       </c>
       <c r="H30" s="13">
-        <f>IF(MAX(H11,G12)=H11,H29+ABS(H12-H11),G30+ABS(H12-G12))</f>
-        <v>360</v>
+        <f>MIN(H29+ABS(H12-H11),G30+ABS(H12-G12))</f>
+        <v>336</v>
       </c>
       <c r="I30" s="13">
-        <f>IF(MAX(I11,H12)=I11,I29+ABS(I12-I11),H30+ABS(I12-H12))</f>
-        <v>425</v>
+        <f>MIN(I29+ABS(I12-I11),H30+ABS(I12-H12))</f>
+        <v>321</v>
       </c>
       <c r="J30" s="13">
-        <f>IF(MAX(J11,I12)=J11,J29+ABS(J12-J11),I30+ABS(J12-I12))</f>
-        <v>448</v>
+        <f>MIN(J29+ABS(J12-J11),I30+ABS(J12-I12))</f>
+        <v>344</v>
       </c>
       <c r="K30" s="13">
-        <f>IF(MAX(K11,J12)=K11,K29+ABS(K12-K11),J30+ABS(K12-J12))</f>
-        <v>474</v>
+        <f>MIN(K29+ABS(K12-K11),J30+ABS(K12-J12))</f>
+        <v>370</v>
       </c>
       <c r="L30" s="13">
-        <f>IF(MAX(L11,K12)=L11,L29+ABS(L12-L11),K30+ABS(L12-K12))</f>
-        <v>529</v>
+        <f>MIN(L29+ABS(L12-L11),K30+ABS(L12-K12))</f>
+        <v>341</v>
       </c>
       <c r="M30" s="13">
-        <f>IF(MAX(M11,L12)=M11,M29+ABS(M12-M11),L30+ABS(M12-L12))</f>
-        <v>448</v>
+        <f>MIN(M29+ABS(M12-M11),L30+ABS(M12-L12))</f>
+        <v>338</v>
       </c>
       <c r="N30" s="13">
-        <f>IF(MAX(N11,M12)=N11,N29+ABS(N12-N11),M30+ABS(N12-M12))</f>
-        <v>450</v>
+        <f>MIN(N29+ABS(N12-N11),M30+ABS(N12-M12))</f>
+        <v>340</v>
       </c>
       <c r="O30" s="13">
-        <f>IF(MAX(O11,N12)=O11,O29+ABS(O12-O11),N30+ABS(O12-N12))</f>
-        <v>517</v>
+        <f>MIN(O29+ABS(O12-O11),N30+ABS(O12-N12))</f>
+        <v>383</v>
       </c>
       <c r="P30" s="13">
-        <f>IF(MAX(P11,O12)=P11,P29+ABS(P12-P11),O30+ABS(P12-O12))</f>
-        <v>536</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P29+ABS(P12-P11),O30+ABS(P12-O12))</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
         <f t="shared" si="1"/>
         <v>391</v>
       </c>
       <c r="C31" s="13">
-        <f>IF(MAX(C12,B13)=C12,C30+ABS(C13-C12),B31+ABS(C13-B13))</f>
-        <v>458</v>
+        <f>MIN(C30+ABS(C13-C12),B31+ABS(C13-B13))</f>
+        <v>348</v>
       </c>
       <c r="D31" s="13">
-        <f>IF(MAX(D12,C13)=D12,D30+ABS(D13-D12),C31+ABS(D13-C13))</f>
-        <v>452</v>
+        <f>MIN(D30+ABS(D13-D12),C31+ABS(D13-C13))</f>
+        <v>298</v>
       </c>
       <c r="E31" s="13">
-        <f>IF(MAX(E12,D13)=E12,E30+ABS(E13-E12),D31+ABS(E13-D13))</f>
-        <v>553</v>
+        <f>MIN(E30+ABS(E13-E12),D31+ABS(E13-D13))</f>
+        <v>341</v>
       </c>
       <c r="F31" s="13">
-        <f>IF(MAX(F12,E13)=F12,F30+ABS(F13-F12),E31+ABS(F13-E13))</f>
-        <v>591</v>
+        <f>MIN(F30+ABS(F13-F12),E31+ABS(F13-E13))</f>
+        <v>297</v>
       </c>
       <c r="G31" s="13">
-        <f>IF(MAX(G12,F13)=G12,G30+ABS(G13-G12),F31+ABS(G13-F13))</f>
-        <v>307</v>
+        <f>MIN(G30+ABS(G13-G12),F31+ABS(G13-F13))</f>
+        <v>283</v>
       </c>
       <c r="H31" s="13">
-        <f>IF(MAX(H12,G13)=H12,H30+ABS(H13-H12),G31+ABS(H13-G13))</f>
-        <v>340</v>
+        <f>MIN(H30+ABS(H13-H12),G31+ABS(H13-G13))</f>
+        <v>316</v>
       </c>
       <c r="I31" s="13">
-        <f>IF(MAX(I12,H13)=I12,I30+ABS(I13-I12),H31+ABS(I13-H13))</f>
-        <v>356</v>
+        <f>MIN(I30+ABS(I13-I12),H31+ABS(I13-H13))</f>
+        <v>332</v>
       </c>
       <c r="J31" s="13">
-        <f>IF(MAX(J12,I13)=J12,J30+ABS(J13-J12),I31+ABS(J13-I13))</f>
+        <f>MIN(J30+ABS(J13-J12),I31+ABS(J13-I13))</f>
+        <v>357</v>
+      </c>
+      <c r="K31" s="13">
+        <f>MIN(K30+ABS(K13-K12),J31+ABS(K13-J13))</f>
         <v>381</v>
       </c>
-      <c r="K31" s="13">
-        <f>IF(MAX(K12,J13)=K12,K30+ABS(K13-K12),J31+ABS(K13-J13))</f>
-        <v>519</v>
-      </c>
       <c r="L31" s="13">
-        <f>IF(MAX(L12,K13)=L12,L30+ABS(L13-L12),K31+ABS(L13-K13))</f>
-        <v>520</v>
+        <f>MIN(L30+ABS(L13-L12),K31+ABS(L13-K13))</f>
+        <v>352</v>
       </c>
       <c r="M31" s="13">
-        <f>IF(MAX(M12,L13)=M12,M30+ABS(M13-M12),L31+ABS(M13-L13))</f>
-        <v>511</v>
+        <f>MIN(M30+ABS(M13-M12),L31+ABS(M13-L13))</f>
+        <v>385</v>
       </c>
       <c r="N31" s="13">
-        <f>IF(MAX(N12,M13)=N12,N30+ABS(N13-N12),M31+ABS(N13-M13))</f>
-        <v>452</v>
+        <f>MIN(N30+ABS(N13-N12),M31+ABS(N13-M13))</f>
+        <v>342</v>
       </c>
       <c r="O31" s="13">
-        <f>IF(MAX(O12,N13)=O12,O30+ABS(O13-O12),N31+ABS(O13-N13))</f>
-        <v>523</v>
+        <f>MIN(O30+ABS(O13-O12),N31+ABS(O13-N13))</f>
+        <v>385</v>
       </c>
       <c r="P31" s="13">
-        <f>IF(MAX(P12,O13)=P12,P30+ABS(P13-P12),O31+ABS(P13-O13))</f>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+        <f>MIN(P30+ABS(P13-P12),O31+ABS(P13-O13))</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
         <f t="shared" si="1"/>
         <v>443</v>
       </c>
       <c r="C32" s="13">
-        <f>IF(MAX(C13,B14)=C13,C31+ABS(C14-C13),B32+ABS(C14-B14))</f>
-        <v>506</v>
+        <f>MIN(C31+ABS(C14-C13),B32+ABS(C14-B14))</f>
+        <v>426</v>
       </c>
       <c r="D32" s="13">
-        <f>IF(MAX(D13,C14)=D13,D31+ABS(D14-D13),C32+ABS(D14-C14))</f>
-        <v>576</v>
+        <f>MIN(D31+ABS(D14-D13),C32+ABS(D14-C14))</f>
+        <v>336</v>
       </c>
       <c r="E32" s="13">
-        <f>IF(MAX(E13,D14)=E13,E31+ABS(E14-E13),D32+ABS(E14-D14))</f>
-        <v>623</v>
+        <f>MIN(E31+ABS(E14-E13),D32+ABS(E14-D14))</f>
+        <v>383</v>
       </c>
       <c r="F32" s="13">
-        <f>IF(MAX(F13,E14)=F13,F31+ABS(F14-F13),E32+ABS(F14-E14))</f>
-        <v>637</v>
+        <f>MIN(F31+ABS(F14-F13),E32+ABS(F14-E14))</f>
+        <v>343</v>
       </c>
       <c r="G32" s="13">
-        <f>IF(MAX(G13,F14)=G13,G31+ABS(G14-G13),F32+ABS(G14-F14))</f>
-        <v>355</v>
+        <f>MIN(G31+ABS(G14-G13),F32+ABS(G14-F14))</f>
+        <v>331</v>
       </c>
       <c r="H32" s="13">
-        <f>IF(MAX(H13,G14)=H13,H31+ABS(H14-H13),G32+ABS(H14-G14))</f>
-        <v>344</v>
+        <f>MIN(H31+ABS(H14-H13),G32+ABS(H14-G14))</f>
+        <v>320</v>
       </c>
       <c r="I32" s="13">
-        <f>IF(MAX(I13,H14)=I13,I31+ABS(I14-I13),H32+ABS(I14-H14))</f>
-        <v>372</v>
+        <f>MIN(I31+ABS(I14-I13),H32+ABS(I14-H14))</f>
+        <v>348</v>
       </c>
       <c r="J32" s="13">
-        <f>IF(MAX(J13,I14)=J13,J31+ABS(J14-J13),I32+ABS(J14-I14))</f>
-        <v>375</v>
+        <f>MIN(J31+ABS(J14-J13),I32+ABS(J14-I14))</f>
+        <v>351</v>
       </c>
       <c r="K32" s="13">
-        <f>IF(MAX(K13,J14)=K13,K31+ABS(K14-K13),J32+ABS(K14-J14))</f>
-        <v>452</v>
+        <f>MIN(K31+ABS(K14-K13),J32+ABS(K14-J14))</f>
+        <v>408</v>
       </c>
       <c r="L32" s="13">
-        <f>IF(MAX(L13,K14)=L13,L31+ABS(L14-L13),K32+ABS(L14-K14))</f>
-        <v>560</v>
+        <f>MIN(L31+ABS(L14-L13),K32+ABS(L14-K14))</f>
+        <v>392</v>
       </c>
       <c r="M32" s="13">
-        <f>IF(MAX(M13,L14)=M13,M31+ABS(M14-M13),L32+ABS(M14-L14))</f>
-        <v>581</v>
+        <f>MIN(M31+ABS(M14-M13),L32+ABS(M14-L14))</f>
+        <v>455</v>
       </c>
       <c r="N32" s="13">
-        <f>IF(MAX(N13,M14)=N13,N31+ABS(N14-N13),M32+ABS(N14-M14))</f>
-        <v>588</v>
+        <f>MIN(N31+ABS(N14-N13),M32+ABS(N14-M14))</f>
+        <v>356</v>
       </c>
       <c r="O32" s="13">
-        <f>IF(MAX(O13,N14)=O13,O31+ABS(O14-O13),N32+ABS(O14-N14))</f>
-        <v>660</v>
+        <f>MIN(O31+ABS(O14-O13),N32+ABS(O14-N14))</f>
+        <v>398</v>
       </c>
       <c r="P32" s="13">
-        <f>IF(MAX(P13,O14)=P13,P31+ABS(P14-P13),O32+ABS(P14-O14))</f>
-        <v>566</v>
+        <f>MIN(P31+ABS(P14-P13),O32+ABS(P14-O14))</f>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -2041,60 +2036,60 @@
         <v>462</v>
       </c>
       <c r="C33" s="13">
-        <f>IF(MAX(C14,B15)=C14,C32+ABS(C15-C14),B33+ABS(C15-B15))</f>
-        <v>588</v>
+        <f>MIN(C32+ABS(C15-C14),B33+ABS(C15-B15))</f>
+        <v>462</v>
       </c>
       <c r="D33" s="13">
-        <f>IF(MAX(D14,C15)=D14,D32+ABS(D15-D14),C33+ABS(D15-C15))</f>
-        <v>635</v>
+        <f>MIN(D32+ABS(D15-D14),C33+ABS(D15-C15))</f>
+        <v>395</v>
       </c>
       <c r="E33" s="13">
-        <f>IF(MAX(E14,D15)=E14,E32+ABS(E15-E14),D33+ABS(E15-D15))</f>
-        <v>641</v>
+        <f>MIN(E32+ABS(E15-E14),D33+ABS(E15-D15))</f>
+        <v>389</v>
       </c>
       <c r="F33" s="13">
-        <f>IF(MAX(F14,E15)=F14,F32+ABS(F15-F14),E33+ABS(F15-E15))</f>
-        <v>641</v>
+        <f>MIN(F32+ABS(F15-F14),E33+ABS(F15-E15))</f>
+        <v>389</v>
       </c>
       <c r="G33" s="13">
-        <f>IF(MAX(G14,F15)=G14,G32+ABS(G15-G14),F33+ABS(G15-F15))</f>
-        <v>710</v>
+        <f>MIN(G32+ABS(G15-G14),F33+ABS(G15-F15))</f>
+        <v>374</v>
       </c>
       <c r="H33" s="13">
-        <f>IF(MAX(H14,G15)=H14,H32+ABS(H15-H14),G33+ABS(H15-G15))</f>
-        <v>345</v>
+        <f>MIN(H32+ABS(H15-H14),G33+ABS(H15-G15))</f>
+        <v>321</v>
       </c>
       <c r="I33" s="13">
-        <f>IF(MAX(I14,H15)=I14,I32+ABS(I15-I14),H33+ABS(I15-H15))</f>
-        <v>400</v>
+        <f>MIN(I32+ABS(I15-I14),H33+ABS(I15-H15))</f>
+        <v>322</v>
       </c>
       <c r="J33" s="13">
-        <f>IF(MAX(J14,I15)=J14,J32+ABS(J15-J14),I33+ABS(J15-I15))</f>
-        <v>454</v>
+        <f>MIN(J32+ABS(J15-J14),I33+ABS(J15-I15))</f>
+        <v>370</v>
       </c>
       <c r="K33" s="13">
-        <f>IF(MAX(K14,J15)=K14,K32+ABS(K15-K14),J33+ABS(K15-J15))</f>
-        <v>509</v>
+        <f>MIN(K32+ABS(K15-K14),J33+ABS(K15-J15))</f>
+        <v>429</v>
       </c>
       <c r="L33" s="13">
-        <f>IF(MAX(L14,K15)=L14,L32+ABS(L15-L14),K33+ABS(L15-K15))</f>
-        <v>568</v>
+        <f>MIN(L32+ABS(L15-L14),K33+ABS(L15-K15))</f>
+        <v>402</v>
       </c>
       <c r="M33" s="13">
-        <f>IF(MAX(M14,L15)=M14,M32+ABS(M15-M14),L33+ABS(M15-L15))</f>
-        <v>625</v>
+        <f>MIN(M32+ABS(M15-M14),L33+ABS(M15-L15))</f>
+        <v>425</v>
       </c>
       <c r="N33" s="13">
-        <f>IF(MAX(N14,M15)=N14,N32+ABS(N15-N14),M33+ABS(N15-M15))</f>
-        <v>626</v>
+        <f>MIN(N32+ABS(N15-N14),M33+ABS(N15-M15))</f>
+        <v>394</v>
       </c>
       <c r="O33" s="13">
-        <f>IF(MAX(O14,N15)=O14,O32+ABS(O15-O14),N33+ABS(O15-N15))</f>
-        <v>653</v>
+        <f>MIN(O32+ABS(O15-O14),N33+ABS(O15-N15))</f>
+        <v>405</v>
       </c>
       <c r="P33" s="13">
-        <f>IF(MAX(P14,O15)=P14,P32+ABS(P15-P14),O33+ABS(P15-O15))</f>
-        <v>579</v>
+        <f>MIN(P32+ABS(P15-P14),O33+ABS(P15-O15))</f>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -2103,60 +2098,60 @@
         <v>517</v>
       </c>
       <c r="C34" s="13">
-        <f>IF(MAX(C15,B16)=C15,C33+ABS(C16-C15),B34+ABS(C16-B16))</f>
+        <f>MIN(C33+ABS(C16-C15),B34+ABS(C16-B16))</f>
         <v>529</v>
       </c>
       <c r="D34" s="13">
-        <f>IF(MAX(D15,C16)=D15,D33+ABS(D16-D15),C34+ABS(D16-C16))</f>
-        <v>660</v>
+        <f>MIN(D33+ABS(D16-D15),C34+ABS(D16-C16))</f>
+        <v>420</v>
       </c>
       <c r="E34" s="13">
-        <f>IF(MAX(E15,D16)=E15,E33+ABS(E16-E15),D34+ABS(E16-D16))</f>
-        <v>694</v>
+        <f>MIN(E33+ABS(E16-E15),D34+ABS(E16-D16))</f>
+        <v>442</v>
       </c>
       <c r="F34" s="13">
-        <f>IF(MAX(F15,E16)=F15,F33+ABS(F16-F15),E34+ABS(F16-E16))</f>
-        <v>661</v>
+        <f>MIN(F33+ABS(F16-F15),E34+ABS(F16-E16))</f>
+        <v>409</v>
       </c>
       <c r="G34" s="13">
-        <f>IF(MAX(G15,F16)=G15,G33+ABS(G16-G15),F34+ABS(G16-F16))</f>
-        <v>698</v>
+        <f>MIN(G33+ABS(G16-G15),F34+ABS(G16-F16))</f>
+        <v>446</v>
       </c>
       <c r="H34" s="13">
-        <f>IF(MAX(H15,G16)=H15,H33+ABS(H16-H15),G34+ABS(H16-G16))</f>
-        <v>702</v>
+        <f>MIN(H33+ABS(H16-H15),G34+ABS(H16-G16))</f>
+        <v>348</v>
       </c>
       <c r="I34" s="13">
-        <f>IF(MAX(I15,H16)=I15,I33+ABS(I16-I15),H34+ABS(I16-H16))</f>
-        <v>737</v>
+        <f>MIN(I33+ABS(I16-I15),H34+ABS(I16-H16))</f>
+        <v>329</v>
       </c>
       <c r="J34" s="13">
-        <f>IF(MAX(J15,I16)=J15,J33+ABS(J16-J15),I34+ABS(J16-I16))</f>
-        <v>747</v>
+        <f>MIN(J33+ABS(J16-J15),I34+ABS(J16-I16))</f>
+        <v>339</v>
       </c>
       <c r="K34" s="13">
-        <f>IF(MAX(K15,J16)=K15,K33+ABS(K16-K15),J34+ABS(K16-J16))</f>
-        <v>565</v>
+        <f>MIN(K33+ABS(K16-K15),J34+ABS(K16-J16))</f>
+        <v>387</v>
       </c>
       <c r="L34" s="13">
-        <f>IF(MAX(L15,K16)=L15,L33+ABS(L16-L15),K34+ABS(L16-K16))</f>
-        <v>582</v>
+        <f>MIN(L33+ABS(L16-L15),K34+ABS(L16-K16))</f>
+        <v>404</v>
       </c>
       <c r="M34" s="13">
-        <f>IF(MAX(M15,L16)=M15,M33+ABS(M16-M15),L34+ABS(M16-L16))</f>
-        <v>664</v>
+        <f>MIN(M33+ABS(M16-M15),L34+ABS(M16-L16))</f>
+        <v>464</v>
       </c>
       <c r="N34" s="13">
-        <f>IF(MAX(N15,M16)=N15,N33+ABS(N16-N15),M34+ABS(N16-M16))</f>
-        <v>678</v>
+        <f>MIN(N33+ABS(N16-N15),M34+ABS(N16-M16))</f>
+        <v>434</v>
       </c>
       <c r="O34" s="13">
-        <f>IF(MAX(O15,N16)=O15,O33+ABS(O16-O15),N34+ABS(O16-N16))</f>
-        <v>737</v>
-      </c>
-      <c r="P34" s="13">
-        <f>IF(MAX(P15,O16)=P15,P33+ABS(P16-P15),O34+ABS(P16-O16))</f>
-        <v>740</v>
+        <f>MIN(O33+ABS(O16-O15),N34+ABS(O16-N16))</f>
+        <v>413</v>
+      </c>
+      <c r="P34" s="14">
+        <f>MIN(P33+ABS(P16-P15),O34+ABS(P16-O16))</f>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
